--- a/Mifos Automation Excels/Loan Product/3500-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Reg-PERIODIC-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/3500-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Reg-PERIODIC-Loanproduct.xlsx
@@ -140,18 +140,6 @@
     <t>Cash</t>
   </si>
   <si>
-    <t xml:space="preserve">Loan portfolio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest Receivable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penalties Receivable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer in Suspence </t>
-  </si>
-  <si>
     <t>Fees Receivable</t>
   </si>
   <si>
@@ -167,9 +155,6 @@
     <t>Income from recovery repayments</t>
   </si>
   <si>
-    <t xml:space="preserve">Losses Writtenoff </t>
-  </si>
-  <si>
     <t>Overpayment Liability</t>
   </si>
   <si>
@@ -231,6 +216,21 @@
   </si>
   <si>
     <t>Overdue/Due Fee/Int,Principal</t>
+  </si>
+  <si>
+    <t>Loan portfolio</t>
+  </si>
+  <si>
+    <t>Interest Receivable</t>
+  </si>
+  <si>
+    <t>Penalties Receivable</t>
+  </si>
+  <si>
+    <t>Transfer in Suspence</t>
+  </si>
+  <si>
+    <t>Losses Writtenoff</t>
   </si>
 </sst>
 </file>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,10 +678,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -710,7 +710,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -777,7 +777,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -806,10 +806,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -833,12 +833,12 @@
         <v>35</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B26" s="9">
         <v>1</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B27" s="4">
         <v>41640</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>20</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B29" s="9">
         <v>2</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B30" s="9">
         <v>10000</v>
@@ -878,15 +878,15 @@
     </row>
     <row r="31" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>20</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>20</v>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -921,79 +921,79 @@
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>43</v>
+      <c r="B37" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>44</v>
+      <c r="B38" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>45</v>
+      <c r="B39" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>46</v>
+      <c r="B40" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
+      <c r="B41" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
+      <c r="B42" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>49</v>
+      <c r="B43" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
+      <c r="B44" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
+      <c r="B45" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1018,10 +1018,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
